--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3235.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3235.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.484719241792214</v>
+        <v>1.309509754180908</v>
       </c>
       <c r="B1">
-        <v>2.760724647114398</v>
+        <v>1.512053728103638</v>
       </c>
       <c r="C1">
-        <v>3.438978733085431</v>
+        <v>1.277461051940918</v>
       </c>
       <c r="D1">
-        <v>3.886751092162565</v>
+        <v>1.329763054847717</v>
       </c>
       <c r="E1">
-        <v>1.207937675320571</v>
+        <v>1.042883515357971</v>
       </c>
     </row>
   </sheetData>
